--- a/Test_result.xlsx
+++ b/Test_result.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI_LIEU\ET-E9\Program\20232\ET4361_He_thong_nhung_va_giao_tiep_nhung\prj\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24CB0C-6DD3-42BC-AD7E-8490F072C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED421B3-D048-4A28-B1CF-07D47A15782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8382E398-3068-4BE3-99F5-3D6B7907C9D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{8382E398-3068-4BE3-99F5-3D6B7907C9D1}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST 1" sheetId="1" r:id="rId1"/>
     <sheet name="TEST 2" sheetId="2" r:id="rId2"/>
     <sheet name="TEST 3" sheetId="3" r:id="rId3"/>
-    <sheet name="TEST 4" sheetId="4" r:id="rId4"/>
-    <sheet name="TEST 5" sheetId="5" r:id="rId5"/>
+    <sheet name="TEST 5" sheetId="5" r:id="rId4"/>
+    <sheet name="." sheetId="10" r:id="rId5"/>
+    <sheet name="TEST 5_10m" sheetId="7" r:id="rId6"/>
+    <sheet name="TEST 5_10m lộn AB" sheetId="9" r:id="rId7"/>
+    <sheet name="TEST 5_1.5m" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST 6_5m" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,102 +43,34 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="133">
   <si>
     <t xml:space="preserve">chuẩn </t>
   </si>
   <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
-  </si>
-  <si>
-    <t>test 4</t>
-  </si>
-  <si>
-    <t>test 5</t>
-  </si>
-  <si>
-    <t>test 6</t>
-  </si>
-  <si>
-    <t>test 7</t>
-  </si>
-  <si>
-    <t>test 8</t>
-  </si>
-  <si>
-    <t>test 9</t>
-  </si>
-  <si>
-    <t>test 10</t>
-  </si>
-  <si>
-    <t>test 11</t>
-  </si>
-  <si>
-    <t>test 12</t>
-  </si>
-  <si>
-    <t>test 13</t>
-  </si>
-  <si>
-    <t>test 14</t>
-  </si>
-  <si>
-    <t>test 15</t>
-  </si>
-  <si>
-    <t>test 16</t>
-  </si>
-  <si>
-    <t>test 17</t>
-  </si>
-  <si>
-    <t>test 18</t>
-  </si>
-  <si>
-    <t>test 19</t>
-  </si>
-  <si>
-    <t>test 20</t>
-  </si>
-  <si>
-    <t>test 21</t>
-  </si>
-  <si>
-    <t>test 22</t>
-  </si>
-  <si>
-    <t>test 23</t>
-  </si>
-  <si>
-    <t>test 24</t>
-  </si>
-  <si>
-    <t>test 25</t>
-  </si>
-  <si>
-    <t>test 26</t>
-  </si>
-  <si>
-    <t>test 27</t>
-  </si>
-  <si>
-    <t>test 28</t>
-  </si>
-  <si>
-    <t>test 29</t>
-  </si>
-  <si>
-    <t>test 30</t>
-  </si>
-  <si>
     <t>TxData có sẵn dữ liệu</t>
   </si>
   <si>
@@ -202,23 +138,343 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>indx00</t>
+  </si>
+  <si>
+    <t>indx01</t>
+  </si>
+  <si>
+    <t>indx02</t>
+  </si>
+  <si>
+    <t>indx03</t>
+  </si>
+  <si>
+    <t>indx04</t>
+  </si>
+  <si>
+    <t>indx05</t>
+  </si>
+  <si>
+    <t>indx06</t>
+  </si>
+  <si>
+    <t>indx07</t>
+  </si>
+  <si>
+    <t>indx08</t>
+  </si>
+  <si>
+    <t>indx09</t>
+  </si>
+  <si>
+    <t>indx10</t>
+  </si>
+  <si>
+    <t>indx11</t>
+  </si>
+  <si>
+    <t>indx12</t>
+  </si>
+  <si>
+    <t>indx13</t>
+  </si>
+  <si>
+    <t>indx14</t>
+  </si>
+  <si>
+    <t>indx15</t>
+  </si>
+  <si>
+    <t>indx16</t>
+  </si>
+  <si>
+    <t>indx17</t>
+  </si>
+  <si>
+    <t>indx18</t>
+  </si>
+  <si>
+    <t>indx19</t>
+  </si>
+  <si>
+    <t>indx20</t>
+  </si>
+  <si>
+    <t>indx21</t>
+  </si>
+  <si>
+    <t>indx22</t>
+  </si>
+  <si>
+    <t>indx23</t>
+  </si>
+  <si>
+    <t>indx24</t>
+  </si>
+  <si>
+    <t>indx25</t>
+  </si>
+  <si>
+    <t>indx26</t>
+  </si>
+  <si>
+    <t>indx27</t>
+  </si>
+  <si>
+    <t>indx28</t>
+  </si>
+  <si>
+    <t>indx29</t>
+  </si>
+  <si>
+    <t>indx30</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RAN00</t>
+  </si>
+  <si>
+    <t>RAN01</t>
+  </si>
+  <si>
+    <t>RAN02</t>
+  </si>
+  <si>
+    <t>RAN03</t>
+  </si>
+  <si>
+    <t>RAN04</t>
+  </si>
+  <si>
+    <t>RAN05</t>
+  </si>
+  <si>
+    <t>RAN06</t>
+  </si>
+  <si>
+    <t>RAN07</t>
+  </si>
+  <si>
+    <t>RAN08</t>
+  </si>
+  <si>
+    <t>RAN09</t>
+  </si>
+  <si>
+    <t>indx0</t>
+  </si>
+  <si>
+    <t>indx1</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>ERR01</t>
+  </si>
+  <si>
+    <t>ERR02</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>215 '×'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 245 'õ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85 'U'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 '#'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 '1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 191 '¿'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 '7'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53 '5'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 '\x1F'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 '\x0B'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61 '='</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 '-'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 163 '£'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 '\x01'</t>
+  </si>
+  <si>
+    <t>0 '\0'</t>
+  </si>
+  <si>
+    <t>245 'õ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 215 '×'</t>
+  </si>
+  <si>
+    <t>85 'U'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 '\037'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 '\v'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 '\001'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 245 'ö'</t>
+  </si>
+  <si>
+    <t>35 '#'</t>
+  </si>
+  <si>
+    <t>dội 1</t>
+  </si>
+  <si>
+    <t>dội 2</t>
+  </si>
+  <si>
+    <t>dội 3</t>
+  </si>
+  <si>
+    <t>'\004'</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>'\200'</t>
+  </si>
+  <si>
+    <t>dội 4</t>
+  </si>
+  <si>
+    <t>dội 5</t>
+  </si>
+  <si>
+    <t>dội 6</t>
+  </si>
+  <si>
+    <t>dội 7</t>
+  </si>
+  <si>
+    <t>dội 8</t>
+  </si>
+  <si>
+    <t>dội 9</t>
+  </si>
+  <si>
+    <t>Dừng</t>
+  </si>
+  <si>
+    <t>Nhận 02</t>
+  </si>
+  <si>
+    <t>Nhận 01</t>
+  </si>
+  <si>
+    <t>96 '`'</t>
+  </si>
+  <si>
+    <t>'\006'</t>
+  </si>
+  <si>
+    <t>12 '\f'</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>indxxx</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,17 +512,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -284,6 +577,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -334,6 +657,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -729,7 +1072,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,12 +1130,12 @@
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -845,7 +1188,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -898,7 +1241,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -951,7 +1294,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1004,7 +1347,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1057,7 +1400,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1110,7 +1453,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1163,7 +1506,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1216,7 +1559,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1269,7 +1612,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1322,7 +1665,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1375,7 +1718,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1428,7 +1771,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1481,7 +1824,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1534,7 +1877,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1587,7 +1930,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1640,7 +1983,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1693,7 +2036,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1746,7 +2089,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1799,7 +2142,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1852,7 +2195,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1905,7 +2248,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1958,7 +2301,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2011,7 +2354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2064,7 +2407,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2117,7 +2460,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2170,7 +2513,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2223,7 +2566,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2276,7 +2619,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2329,7 +2672,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2381,9 +2724,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:Q1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2396,7 +2739,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q32"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,18 +2800,15 @@
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2514,9 +2854,6 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2524,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2567,9 +2904,6 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2580,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2620,9 +2954,6 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2636,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2674,9 +3005,6 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2693,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2729,9 +3057,6 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -2751,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -2785,9 +3110,6 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
@@ -2810,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -2842,9 +3164,6 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -2870,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -2900,9 +3219,6 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -2931,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -2959,9 +3275,6 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -2993,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -3019,9 +3332,6 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
@@ -3056,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -3080,9 +3390,6 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -3120,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -3142,9 +3449,6 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -3185,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -3205,9 +3509,6 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -3251,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
@@ -3269,9 +3570,6 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
@@ -3318,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3334,11 +3632,8 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3387,14 +3682,11 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3440,9 +3732,6 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -3450,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3493,9 +3782,6 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -3506,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -3546,9 +3832,6 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -3562,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -3599,9 +3882,6 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -3618,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -3652,9 +3932,6 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -3674,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3705,9 +3982,6 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -3730,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3758,9 +4032,6 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -3786,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -3811,9 +4082,6 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -3842,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -3864,9 +4132,6 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -3898,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -3917,9 +4182,6 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -3954,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -3970,9 +4232,6 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -4010,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -4023,9 +4282,6 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -4066,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
@@ -4076,9 +4332,6 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -4122,13 +4375,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -4175,23 +4431,24 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q4 B5:R5 B6:S6 B7:T7 B8:U8 B9:V9 B10:W10 B11:X11 B12:Y12 B13:Z13 B14:AA14 B15:AB15 B16:AC16 B17:Q32">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:Q4 B5:R5 B6:S6 B7:T7 B8:U8 B9:V9 B10:W10 B11:X11 B12:Y12 B13:Z13 B14:AA14 B15:AB15 B16:AC16 B17:Q1048576">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"NULL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:Q4">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:Q1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B5:R5 B6:S6 B7:T7 B8:U8 B9:V9 B10:W10 B11:X11 B12:Y12 B13:Z13 B14:AA14 B15:AB15 B16:AC16 B17:Q32">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:Q4 B5:R5 B6:S6 B7:T7 B8:U8 B9:V9 B10:W10 B11:X11 B12:Y12 B13:Z13 B14:AA14 B15:AB15 B16:AC16 B17:Q1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4203,7 +4460,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B1" sqref="B1:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4213,272 +4470,272 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4499,7 +4756,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4520,7 +4777,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4541,7 +4798,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4562,7 +4819,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4583,7 +4840,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4604,7 +4861,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4625,7 +4882,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4646,7 +4903,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4667,7 +4924,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4688,7 +4945,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4708,8 +4965,8 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4730,7 +4987,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4751,7 +5008,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4772,7 +5029,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4793,7 +5050,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4814,7 +5071,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4835,7 +5092,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4856,7 +5113,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4877,7 +5134,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4898,7 +5155,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4919,7 +5176,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4940,7 +5197,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4961,7 +5218,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4982,7 +5239,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5003,7 +5260,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5041,12 +5298,13 @@
       <c r="Q32" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"NULL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5055,137 +5313,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8172BAA9-4689-4E67-97CC-3A0B445ECC1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D3AD9-600B-4D4E-AC92-F668AC16DA7C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5204,9 +5447,6 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5225,9 +5465,6 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5246,9 +5483,6 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5267,9 +5501,6 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5288,9 +5519,6 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5309,9 +5537,6 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5330,9 +5555,6 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5351,9 +5573,6 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5372,9 +5591,6 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5393,9 +5609,6 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5414,9 +5627,6 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5742,13 +5952,4257 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:Q31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EEF779-235E-4953-8B3A-54DE4FA11D31}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0B56A2-0567-4665-A11F-AC69A22B7668}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:Q12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:Q1 B2:R2 B3:Q11 B13:Q22">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"NULL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9408AD9-9498-4286-B273-93FE12EEA852}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D34E9-496E-4909-AB90-B23E10CBB494}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:Q4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:Q3">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"NULL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:Q5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"NULL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EF54D3-864A-4C62-BEC2-FAE489294BA0}">
+  <dimension ref="A1:AI30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="5">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2:AE2">IF(B2:P2=B1:P1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3:AE3">IF(B3:P3=B1:P1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="5">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="6">
+        <f>SUM(_xlfn.ANCHORARRAY(Q2))</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <f>SUM(_xlfn.ANCHORARRAY(Q3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5:AE5">IF(B5:P5=$B4:P4, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" s="6">
+        <f>SUM(_xlfn.ANCHORARRAY(Q5))</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6">
+        <f>SUM(_xlfn.ANCHORARRAY(Q6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="3">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6:AE6">IF(B6:P6=$B4:P4, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8:AE8">IF(B8:P8=$B7:P7, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" cm="1">
+        <f t="array" ref="Q9:AE9">IF(B9:P9=B7:P7, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="5">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11:AE11">IF(B11:P11=$B10:P10, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12:AE12">IF(B12:P12=B10:P10, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="5">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14:AE14">IF(B14:P14=$B13:P13, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15:AE15">IF(B15:P15=B13:P13, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="5">
+        <v>9</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="5">
+        <v>3</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17:AE17">IF(B17:P17=$B16:P16, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="3">
+        <v>9</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" cm="1">
+        <f t="array" ref="Q18:AE18">IF(B18:P18=B16:P16, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="5">
+        <v>9</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q20" cm="1">
+        <f t="array" ref="Q20:AE20">IF(B20:P20=$B19:P19, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="3">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21:AE21">IF(B21:P21=B19:P19, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="5">
+        <v>9</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="5">
+        <v>6</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="5">
+        <v>8</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="3">
+        <v>6</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="3">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23:AE23">IF(B23:P23=$B22:P22, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="3">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24:AE24">IF(B24:P24=B22:P22, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="5">
+        <v>7</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="5">
+        <v>6</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="5">
+        <v>3</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="3">
+        <v>6</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" cm="1">
+        <f t="array" ref="Q26:AE26">IF(B26:P26=$B25:P25, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="3">
+        <v>7</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="3">
+        <v>6</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27:AE27">IF(B27:P27=B25:P25, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="5">
+        <v>8</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="5">
+        <v>6</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="3">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" ref="Q29:AE29">IF(B29:P29=$B28:P28, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="3">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" cm="1">
+        <f t="array" ref="Q30:AE30">IF(B30:P30=B28:P28, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>